--- a/docss/trend/spain/E_polyarteritis.xlsx
+++ b/docss/trend/spain/E_polyarteritis.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16425" windowHeight="12195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ej14_Poliarteristis_Comarcas" sheetId="1" r:id="rId1"/>
     <sheet name="Tasa_anual_Ej14_Poliarteritis" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -12810,7 +12810,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B1" sqref="B1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12834,13 +12834,13 @@
         <v>1999</v>
       </c>
       <c r="B2">
-        <v>5.1008969037105452E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="C2">
-        <v>6.8784332345211446E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="D2">
-        <v>3.6393655387422168E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12848,13 +12848,13 @@
         <v>2000</v>
       </c>
       <c r="B3">
-        <v>3.2049526168692444E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="C3">
-        <v>3.7393503762368961E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="D3">
-        <v>2.5884293662698364E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -12862,13 +12862,13 @@
         <v>2001</v>
       </c>
       <c r="B4">
-        <v>3.0390183093505219E-2</v>
+        <v>0.03</v>
       </c>
       <c r="C4">
-        <v>3.3295135149016407E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="D4">
-        <v>2.9904158050302193E-2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -12876,13 +12876,13 @@
         <v>2002</v>
       </c>
       <c r="B5">
-        <v>5.1010407201812907E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="C5">
-        <v>5.2205000679450171E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="D5">
-        <v>5.0421224583271973E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -12890,13 +12890,13 @@
         <v>2003</v>
       </c>
       <c r="B6">
-        <v>3.5778145607654979E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="C6">
-        <v>3.8236627717584584E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="D6">
-        <v>3.3765132075677828E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -12904,13 +12904,13 @@
         <v>2004</v>
       </c>
       <c r="B7">
-        <v>3.2223021659262614E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="C7">
-        <v>4.659423913225063E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="D7">
-        <v>2.1473365666667035E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -12918,13 +12918,13 @@
         <v>2005</v>
       </c>
       <c r="B8">
-        <v>3.2743263115905127E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="C8">
-        <v>3.7391269050998481E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="D8">
-        <v>2.66133779672315E-2</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -12932,13 +12932,13 @@
         <v>2006</v>
       </c>
       <c r="B9">
-        <v>4.417675168299693E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="C9">
-        <v>8.1000861655646739E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="D9">
-        <v>1.5165172423271334E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -12946,13 +12946,13 @@
         <v>2007</v>
       </c>
       <c r="B10">
-        <v>3.5355014980652744E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C10">
-        <v>4.3111744758848713E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="D10">
-        <v>3.1313925561743061E-2</v>
+        <v>3.1E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -12960,13 +12960,13 @@
         <v>2008</v>
       </c>
       <c r="B11">
-        <v>1.9450212837554711E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="C11">
-        <v>2.0006624720814034E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D11">
-        <v>2.1163953761365963E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -12974,13 +12974,13 @@
         <v>2009</v>
       </c>
       <c r="B12">
-        <v>1.9526012523068716E-2</v>
+        <v>0.02</v>
       </c>
       <c r="C12">
-        <v>2.5678976236258724E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="D12">
-        <v>1.3772189450084247E-2</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -12988,13 +12988,13 @@
         <v>2010</v>
       </c>
       <c r="B13">
-        <v>1.5110095098483194E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="C13">
-        <v>9.3842145880055575E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="D13">
-        <v>1.9312011628306352E-2</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -13002,13 +13002,13 @@
         <v>2011</v>
       </c>
       <c r="B14">
-        <v>1.5530143872039239E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="C14">
-        <v>1.8331040049696143E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D14">
-        <v>1.2186038514009874E-2</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -13016,13 +13016,13 @@
         <v>2012</v>
       </c>
       <c r="B15">
-        <v>2.1090111757120833E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="C15">
-        <v>2.2223657473050839E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="D15">
-        <v>1.9473337040865044E-2</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -13030,13 +13030,13 @@
         <v>2013</v>
       </c>
       <c r="B16">
-        <v>1.6473542678399164E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="C16">
-        <v>1.252858605129824E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="D16">
-        <v>1.9273203199883609E-2</v>
+        <v>1.9E-2</v>
       </c>
     </row>
   </sheetData>
